--- a/Смета/Смета.xlsx
+++ b/Смета/Смета.xlsx
@@ -1,23 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+  <si>
+    <t>Смета</t>
+  </si>
+  <si>
+    <t>№, п/п</t>
+  </si>
+  <si>
+    <t>Наименование работ/материалов</t>
+  </si>
+  <si>
+    <t>продавец</t>
+  </si>
+  <si>
+    <t>ед. изм.</t>
+  </si>
+  <si>
+    <t>кол-во</t>
+  </si>
+  <si>
+    <t>стоимость</t>
+  </si>
+  <si>
+    <t>сумма</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>Воздушный винт 11х8</t>
+  </si>
+  <si>
+    <t>Мотор Sunnysky X2814</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>Регулятор оборотов Skywalker 60A V2</t>
+  </si>
+  <si>
+    <t>Скоба винта</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ [$₽-419]_-;\-* #,##0\ [$₽-419]_-;_-* &quot;-&quot;\ [$₽-419]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +78,80 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3278CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -42,25 +159,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +308,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,7 +380,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -343,36 +553,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3502</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G16" si="0">F3*E3</f>
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1349</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2409</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>960</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="7">
+        <f>SUM(G3:G16)</f>
+        <v>8220</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Смета/Смета.xlsx
+++ b/Смета/Смета.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Смета</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Скоба винта</t>
+  </si>
+  <si>
+    <t>Аккумуляторы Molicel 18650</t>
+  </si>
+  <si>
+    <t>ozon</t>
   </si>
 </sst>
 </file>
@@ -237,6 +243,9 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -247,9 +256,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,7 +563,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,15 +577,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -611,7 +617,7 @@
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -635,7 +641,7 @@
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -659,7 +665,7 @@
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -683,7 +689,7 @@
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -704,14 +710,24 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1100</v>
+      </c>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -841,17 +857,17 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="7">
         <f>SUM(G3:G16)</f>
-        <v>8220</v>
+        <v>12620</v>
       </c>
     </row>
   </sheetData>
@@ -864,6 +880,7 @@
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Смета/Смета.xlsx
+++ b/Смета/Смета.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE39293-888A-4369-AEEC-36C3BA91C9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>Смета</t>
   </si>
@@ -24,9 +36,6 @@
     <t>№, п/п</t>
   </si>
   <si>
-    <t>Наименование работ/материалов</t>
-  </si>
-  <si>
     <t>продавец</t>
   </si>
   <si>
@@ -67,30 +76,72 @@
   </si>
   <si>
     <t>ozon</t>
+  </si>
+  <si>
+    <t>Материалы планера БВС</t>
+  </si>
+  <si>
+    <t>Наименование материалов</t>
+  </si>
+  <si>
+    <t>Винтомоторная группа и электропитание</t>
+  </si>
+  <si>
+    <t>Карбоновая трубка 30х28х1000мм</t>
+  </si>
+  <si>
+    <t>Карбоновая трубка 16х14х1000мм</t>
+  </si>
+  <si>
+    <t>Карбоновые трубки 2 шт 8х4х500мм</t>
+  </si>
+  <si>
+    <t>PETG-CF Eryone 1,75 мм, 1 кг</t>
+  </si>
+  <si>
+    <t>200 гр. эпоксидная смола L + 50 гр. отвердитель EPH 161</t>
+  </si>
+  <si>
+    <t>graphit-pro</t>
+  </si>
+  <si>
+    <t>Стеклоткань 163 г /м², 1 м²</t>
+  </si>
+  <si>
+    <t>graphite-pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клей эпоксидный 3М DP490, 50 мл </t>
+  </si>
+  <si>
+    <t>vseinstrumenti</t>
+  </si>
+  <si>
+    <t>ПВХ трубка, 16 мм</t>
+  </si>
+  <si>
+    <t>Пластиковые трубки, 8 мм</t>
+  </si>
+  <si>
+    <t>PETG REC Relax 1,75 мм, 0,75 кг</t>
+  </si>
+  <si>
+    <t>Технониколь XPS Carbon Eco 100 мм, 1 уп.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ [$₽-419]_-;\-* #,##0\ [$₽-419]_-;_-* &quot;-&quot;\ [$₽-419]_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,18 +159,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,43 +303,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -269,14 +372,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -314,7 +420,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -386,7 +492,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -559,11 +665,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,318 +682,561 @@
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3502</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G25" si="0">F4*E4</f>
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1349</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2409</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>960</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2102</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1108</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1356</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1838</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1569</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3387</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>12</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>3502</v>
-      </c>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G16" si="0">F3*E3</f>
-        <v>3502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1349</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" si="0"/>
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1319</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2409</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="0"/>
-        <v>2409</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>729</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>14</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>960</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="0"/>
-        <v>960</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4800</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>210</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="0"/>
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4">
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>250</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="7">
-        <f>SUM(G3:G16)</f>
-        <v>12620</v>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17">
+        <f>SUM(G4:G25)</f>
+        <v>36796</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A17:F17"/>
+  <mergeCells count="4">
+    <mergeCell ref="A26:F26"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{61099136-2D79-46BA-A9C4-A0F6EB638277}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{68115715-9396-43F9-8385-707EF48BF833}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{1A4AA4CF-0DB7-4128-9E3D-F92D01048B2A}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{8010C7DE-73EB-4635-B4B1-396187A54D04}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{CF8CD49A-B8B1-44F7-9083-754F340F2F00}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{1CB7D211-8788-42BB-88FB-5C0681CD2A3A}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{4AA9AA7F-A306-472A-9E01-B7DD93D0C056}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{62A85383-5A9D-40AF-B01F-D245A696B296}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{4B613BFF-8F6F-4F12-A665-2FE0DD58785D}"/>
+    <hyperlink ref="C19" r:id="rId15" location="characteristics" xr:uid="{6161DB1A-4B0B-4B99-BF0D-66BA5699E1CC}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{5594B388-5AF1-41C6-80B0-77F07235F95C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -899,7 +1248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
